--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Francisco Javier García.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Francisco Javier García.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="471">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -1434,6 +1434,9 @@
   </si>
   <si>
     <t>31/10/2022</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
 </sst>
 </file>
@@ -5750,7 +5753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="494">
+  <cellXfs count="500">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6890,6 +6893,24 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -7419,36 +7440,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="true"/>
-    <col min="2" max="2" width="6.77734375" customWidth="true"/>
-    <col min="3" max="3" width="6.77734375" customWidth="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true"/>
-    <col min="6" max="6" width="6.77734375" customWidth="true"/>
-    <col min="7" max="7" width="6.77734375" customWidth="true"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true"/>
-    <col min="9" max="9" width="2.77734375" customWidth="true"/>
-    <col min="10" max="10" width="6.77734375" customWidth="true"/>
-    <col min="11" max="11" width="6.77734375" customWidth="true"/>
-    <col min="12" max="12" width="6.77734375" customWidth="true"/>
-    <col min="13" max="13" width="6.77734375" customWidth="true"/>
-    <col min="14" max="14" width="6.77734375" customWidth="true"/>
-    <col min="15" max="15" width="6.77734375" customWidth="true"/>
-    <col min="16" max="16" width="6.77734375" customWidth="true"/>
-    <col min="17" max="17" width="2.77734375" customWidth="true"/>
-    <col min="18" max="18" width="6.77734375" customWidth="true"/>
-    <col min="19" max="19" width="6.77734375" customWidth="true"/>
-    <col min="20" max="20" width="6.77734375" customWidth="true"/>
-    <col min="21" max="21" width="6.77734375" customWidth="true"/>
-    <col min="22" max="22" width="6.77734375" customWidth="true"/>
-    <col min="23" max="23" width="6.77734375" customWidth="true"/>
-    <col min="24" max="24" width="6.77734375" customWidth="true"/>
-    <col min="25" max="25" width="10.0" customWidth="true"/>
-    <col min="26" max="26" width="5.77734375" customWidth="true"/>
-    <col min="27" max="27" width="25.0" customWidth="true"/>
-    <col min="28" max="28" width="25.0" customWidth="true"/>
-    <col min="29" max="29" width="25.0" customWidth="true"/>
-    <col min="30" max="30" width="10.0" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.77734375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="6.77734375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.77734375" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.8" customHeight="true">
@@ -9452,23 +9473,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10048,23 +10069,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -10651,23 +10672,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11245,23 +11266,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -11847,23 +11868,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12042,33 +12063,42 @@
       <c r="B18" s="131" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="G18" s="129" t="n">
-        <f>((E18-C18)*24)-1</f>
-        <v>0.0</v>
+      <c r="C18" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" s="129" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="14.4" customHeight="true">
       <c r="B19" s="131" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="G19" s="129" t="n">
-        <f>((E19-C19)*24)-1</f>
-        <v>0.0</v>
+      <c r="C19" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="129" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" ht="14.4" customHeight="true">
       <c r="B20" s="131" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="G20" s="129" t="n">
-        <f>((E20-C20)*24)-1</f>
-        <v>0.0</v>
+      <c r="C20" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="129" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="14.4" customHeight="true">
@@ -12085,11 +12115,14 @@
       <c r="B22" s="131" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="G22" s="129" t="n">
-        <f>((E22-C22)*24)-1</f>
-        <v>0.0</v>
+      <c r="C22" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="132" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="129" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" ht="14.4" customHeight="true">
@@ -12116,8 +12149,12 @@
       <c r="B25" s="131" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="132"/>
-      <c r="E25" s="132"/>
+      <c r="C25" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="129" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12127,8 +12164,12 @@
       <c r="B26" s="131" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="E26" s="132"/>
+      <c r="C26" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="129" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12138,8 +12179,12 @@
       <c r="B27" s="131" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="E27" s="132"/>
+      <c r="C27" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="129" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -12149,8 +12194,12 @@
       <c r="B28" s="131" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="E28" s="132"/>
+      <c r="C28" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="129" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -12160,8 +12209,12 @@
       <c r="B29" s="131" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="E29" s="132"/>
+      <c r="C29" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="129" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12191,8 +12244,12 @@
       <c r="B32" s="131" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="132"/>
-      <c r="E32" s="132"/>
+      <c r="C32" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="129" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12202,8 +12259,12 @@
       <c r="B33" s="131" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="132"/>
-      <c r="E33" s="132"/>
+      <c r="C33" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="129" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12213,8 +12274,12 @@
       <c r="B34" s="131" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="132"/>
-      <c r="E34" s="132"/>
+      <c r="C34" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="129" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -12224,8 +12289,12 @@
       <c r="B35" s="131" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="132"/>
-      <c r="E35" s="132"/>
+      <c r="C35" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="129" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -12235,8 +12304,12 @@
       <c r="B36" s="131" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="E36" s="132"/>
+      <c r="C36" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="129" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12266,8 +12339,12 @@
       <c r="B39" s="131" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="E39" s="132"/>
+      <c r="C39" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="129" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12277,8 +12354,12 @@
       <c r="B40" s="131" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="132"/>
-      <c r="E40" s="132"/>
+      <c r="C40" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="129" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12288,8 +12369,12 @@
       <c r="B41" s="131" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="132"/>
-      <c r="E41" s="132"/>
+      <c r="C41" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="129" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -12299,8 +12384,12 @@
       <c r="B42" s="131" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="132"/>
-      <c r="E42" s="132"/>
+      <c r="C42" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="129" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -12310,8 +12399,12 @@
       <c r="B43" s="131" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="132"/>
-      <c r="E43" s="132"/>
+      <c r="C43" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="129" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -12341,8 +12434,12 @@
       <c r="B46" s="131" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="132"/>
-      <c r="E46" s="132"/>
+      <c r="C46" s="496" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E46" s="496" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G46" s="129" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -12449,6 +12546,7 @@
       <c r="H62" s="143"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -12471,23 +12569,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -12645,8 +12743,12 @@
       <c r="B16" s="165" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="E16" s="166"/>
+      <c r="C16" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="163" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -12656,8 +12758,12 @@
       <c r="B17" s="165" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="166"/>
-      <c r="E17" s="166"/>
+      <c r="C17" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="163" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -12667,8 +12773,12 @@
       <c r="B18" s="165" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="166"/>
-      <c r="E18" s="166"/>
+      <c r="C18" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="163" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -12678,8 +12788,12 @@
       <c r="B19" s="165" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="E19" s="166"/>
+      <c r="C19" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="163" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -12709,8 +12823,12 @@
       <c r="B22" s="165" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="166"/>
-      <c r="E22" s="166"/>
+      <c r="C22" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="163" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -12720,8 +12838,12 @@
       <c r="B23" s="165" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="166"/>
-      <c r="E23" s="166"/>
+      <c r="C23" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="163" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -12731,8 +12853,12 @@
       <c r="B24" s="165" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="166"/>
-      <c r="E24" s="166"/>
+      <c r="C24" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="163" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -12742,8 +12868,12 @@
       <c r="B25" s="165" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="166"/>
-      <c r="E25" s="166"/>
+      <c r="C25" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="163" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -12753,8 +12883,12 @@
       <c r="B26" s="165" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="166"/>
-      <c r="E26" s="166"/>
+      <c r="C26" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="163" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -12784,8 +12918,12 @@
       <c r="B29" s="165" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="E29" s="166"/>
+      <c r="C29" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="163" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -12795,8 +12933,12 @@
       <c r="B30" s="165" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="166"/>
-      <c r="E30" s="166"/>
+      <c r="C30" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="163" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -12806,8 +12948,12 @@
       <c r="B31" s="165" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="166"/>
-      <c r="E31" s="166"/>
+      <c r="C31" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="163" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -12817,8 +12963,12 @@
       <c r="B32" s="165" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="E32" s="166"/>
+      <c r="C32" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="163" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -12828,8 +12978,12 @@
       <c r="B33" s="165" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="166"/>
-      <c r="E33" s="166"/>
+      <c r="C33" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="163" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -12859,8 +13013,12 @@
       <c r="B36" s="165" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="166"/>
-      <c r="E36" s="166"/>
+      <c r="C36" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="163" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -12870,8 +13028,12 @@
       <c r="B37" s="165" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="166"/>
-      <c r="E37" s="166"/>
+      <c r="C37" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="163" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -12881,8 +13043,12 @@
       <c r="B38" s="165" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="166"/>
-      <c r="E38" s="166"/>
+      <c r="C38" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="163" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -12892,8 +13058,12 @@
       <c r="B39" s="165" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="166"/>
-      <c r="E39" s="166"/>
+      <c r="C39" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="163" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -12903,8 +13073,12 @@
       <c r="B40" s="165" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="166"/>
-      <c r="E40" s="166"/>
+      <c r="C40" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="163" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -12934,8 +13108,12 @@
       <c r="B43" s="165" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="166"/>
-      <c r="E43" s="166"/>
+      <c r="C43" s="494" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="494" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="163" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -13058,6 +13236,7 @@
       <c r="H62" s="177"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="B58:H62"/>
@@ -13080,23 +13259,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -13254,8 +13433,12 @@
       <c r="B16" s="199" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="E16" s="200"/>
+      <c r="C16" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="197" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -13265,8 +13448,12 @@
       <c r="B17" s="199" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="200"/>
-      <c r="E17" s="200"/>
+      <c r="C17" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="197" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -13276,8 +13463,12 @@
       <c r="B18" s="199" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="200"/>
-      <c r="E18" s="200"/>
+      <c r="C18" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="197" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -13287,8 +13478,12 @@
       <c r="B19" s="199" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="E19" s="200"/>
+      <c r="C19" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="197" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -13318,8 +13513,12 @@
       <c r="B22" s="199" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="200"/>
-      <c r="E22" s="200"/>
+      <c r="C22" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="197" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -13329,8 +13528,12 @@
       <c r="B23" s="199" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="200"/>
-      <c r="E23" s="200"/>
+      <c r="C23" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="197" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -13340,8 +13543,12 @@
       <c r="B24" s="199" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="200"/>
-      <c r="E24" s="200"/>
+      <c r="C24" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="197" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -13351,8 +13558,12 @@
       <c r="B25" s="199" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="200"/>
-      <c r="E25" s="200"/>
+      <c r="C25" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="197" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -13362,8 +13573,12 @@
       <c r="B26" s="199" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="200"/>
-      <c r="E26" s="200"/>
+      <c r="C26" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="197" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -13393,8 +13608,12 @@
       <c r="B29" s="199" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="E29" s="200"/>
+      <c r="C29" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="197" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -13404,8 +13623,12 @@
       <c r="B30" s="199" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="200"/>
-      <c r="E30" s="200"/>
+      <c r="C30" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="197" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -13415,8 +13638,12 @@
       <c r="B31" s="199" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="200"/>
-      <c r="E31" s="200"/>
+      <c r="C31" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="197" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -13426,8 +13653,12 @@
       <c r="B32" s="199" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="200"/>
-      <c r="E32" s="200"/>
+      <c r="C32" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="197" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -13437,8 +13668,12 @@
       <c r="B33" s="199" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="200"/>
-      <c r="E33" s="200"/>
+      <c r="C33" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="197" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -13468,8 +13703,12 @@
       <c r="B36" s="199" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="200"/>
-      <c r="E36" s="200"/>
+      <c r="C36" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="197" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -13479,8 +13718,12 @@
       <c r="B37" s="199" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="200"/>
-      <c r="E37" s="200"/>
+      <c r="C37" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="197" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -13490,8 +13733,12 @@
       <c r="B38" s="199" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="200"/>
-      <c r="E38" s="200"/>
+      <c r="C38" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="197" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -13501,8 +13748,12 @@
       <c r="B39" s="199" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="200"/>
-      <c r="E39" s="200"/>
+      <c r="C39" s="499" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="499" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="197" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -13512,11 +13763,14 @@
       <c r="B40" s="199" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="200"/>
-      <c r="E40" s="200"/>
-      <c r="G40" s="197" t="n">
-        <f>((E40-C40)*24)-1</f>
-        <v>0.0</v>
+      <c r="C40" s="200" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="200" t="s">
+        <v>58</v>
+      </c>
+      <c r="G40" s="197" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="41" ht="14.4" customHeight="true">
@@ -13701,23 +13955,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14312,23 +14566,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -14932,23 +15186,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -15532,23 +15786,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">
@@ -16135,23 +16389,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="true"/>
-    <col min="2" max="2" width="18.6640625" customWidth="true"/>
-    <col min="3" max="3" width="18.0" customWidth="true"/>
-    <col min="4" max="4" width="3.109375" customWidth="true"/>
-    <col min="5" max="5" width="18.6640625" customWidth="true"/>
-    <col min="6" max="6" width="3.109375" customWidth="true"/>
-    <col min="7" max="7" width="14.6640625" customWidth="true"/>
-    <col min="8" max="8" width="4.6640625" customWidth="true"/>
-    <col min="9" max="9" width="10.88671875" customWidth="true"/>
-    <col min="10" max="10" width="5.33203125" customWidth="true"/>
-    <col min="11" max="11" width="13.33203125" customWidth="true"/>
-    <col min="12" max="12" width="10.88671875" customWidth="true"/>
-    <col min="13" max="13" width="10.88671875" customWidth="true"/>
-    <col min="14" max="14" width="10.88671875" customWidth="true"/>
-    <col min="15" max="15" width="10.88671875" customWidth="true"/>
-    <col min="16" max="16" width="10.88671875" customWidth="true"/>
-    <col min="17" max="17" width="10.88671875" customWidth="true"/>
+    <col min="1" max="1" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.6640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="10.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.4" customHeight="true">

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Francisco Javier García.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Francisco Javier García.xlsx
@@ -5753,7 +5753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="500">
+  <cellXfs count="510">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
@@ -6893,6 +6893,36 @@
     </xf>
     <xf xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:main="http://schemas.openxmlformats.org/spreadsheetml/2006/main" numFmtId="0" fontId="493" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="1" applyFill="true" applyBorder="true" applyNumberFormat="true">
       <main:alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
       <alignment horizontal="center"/>
@@ -14129,8 +14159,12 @@
       <c r="B16" s="232" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="233"/>
-      <c r="E16" s="233"/>
+      <c r="C16" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="230" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -14160,8 +14194,12 @@
       <c r="B19" s="232" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="233"/>
-      <c r="E19" s="233"/>
+      <c r="C19" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="230" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -14171,8 +14209,12 @@
       <c r="B20" s="232" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="233"/>
-      <c r="E20" s="233"/>
+      <c r="C20" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="230" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -14182,8 +14224,12 @@
       <c r="B21" s="232" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="E21" s="233"/>
+      <c r="C21" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="230" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -14193,8 +14239,12 @@
       <c r="B22" s="232" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="233"/>
-      <c r="E22" s="233"/>
+      <c r="C22" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="230" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -14204,8 +14254,12 @@
       <c r="B23" s="232" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="233"/>
-      <c r="E23" s="233"/>
+      <c r="C23" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="230" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -14235,8 +14289,12 @@
       <c r="B26" s="232" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="233"/>
-      <c r="E26" s="233"/>
+      <c r="C26" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="230" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -14246,8 +14304,12 @@
       <c r="B27" s="232" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="233"/>
-      <c r="E27" s="233"/>
+      <c r="C27" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="230" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -14257,8 +14319,12 @@
       <c r="B28" s="232" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="233"/>
-      <c r="E28" s="233"/>
+      <c r="C28" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="230" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -14318,8 +14384,12 @@
       <c r="B34" s="232" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="233"/>
-      <c r="E34" s="233"/>
+      <c r="C34" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="230" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -14329,8 +14399,12 @@
       <c r="B35" s="232" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="233"/>
-      <c r="E35" s="233"/>
+      <c r="C35" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="230" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -14340,8 +14414,12 @@
       <c r="B36" s="232" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="233"/>
-      <c r="E36" s="233"/>
+      <c r="C36" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="230" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -14351,8 +14429,12 @@
       <c r="B37" s="232" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="233"/>
-      <c r="E37" s="233"/>
+      <c r="C37" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="230" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -14382,8 +14464,12 @@
       <c r="B40" s="232" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="233"/>
-      <c r="E40" s="233"/>
+      <c r="C40" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="230" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -14393,8 +14479,12 @@
       <c r="B41" s="232" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="233"/>
-      <c r="E41" s="233"/>
+      <c r="C41" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="230" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -14404,8 +14494,12 @@
       <c r="B42" s="232" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="233"/>
-      <c r="E42" s="233"/>
+      <c r="C42" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="230" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -14415,8 +14509,12 @@
       <c r="B43" s="232" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="233"/>
-      <c r="E43" s="233"/>
+      <c r="C43" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="230" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -14426,8 +14524,12 @@
       <c r="B44" s="232" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="233"/>
-      <c r="E44" s="233"/>
+      <c r="C44" s="502" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E44" s="502" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G44" s="230" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -14544,6 +14646,7 @@
       <c r="H62" s="243"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -14750,8 +14853,12 @@
       <c r="B17" s="265" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="266"/>
-      <c r="E17" s="266"/>
+      <c r="C17" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="263" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -14761,8 +14868,12 @@
       <c r="B18" s="265" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="266"/>
-      <c r="E18" s="266"/>
+      <c r="C18" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="263" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -14772,8 +14883,12 @@
       <c r="B19" s="265" t="n">
         <v>4.0</v>
       </c>
-      <c r="C19" s="266"/>
-      <c r="E19" s="266"/>
+      <c r="C19" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="263" t="n">
         <f>((E19-C19)*24)-1</f>
         <v>0.0</v>
@@ -14783,8 +14898,12 @@
       <c r="B20" s="265" t="n">
         <v>5.0</v>
       </c>
-      <c r="C20" s="266"/>
-      <c r="E20" s="266"/>
+      <c r="C20" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="263" t="n">
         <f>((E20-C20)*24)-1</f>
         <v>0.0</v>
@@ -14794,8 +14913,12 @@
       <c r="B21" s="265" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="266"/>
-      <c r="E21" s="266"/>
+      <c r="C21" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="263" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -14825,8 +14948,12 @@
       <c r="B24" s="265" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="266"/>
-      <c r="E24" s="266"/>
+      <c r="C24" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="263" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -14836,8 +14963,12 @@
       <c r="B25" s="265" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="266"/>
-      <c r="E25" s="266"/>
+      <c r="C25" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="263" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -14847,8 +14978,12 @@
       <c r="B26" s="265" t="n">
         <v>11.0</v>
       </c>
-      <c r="C26" s="266"/>
-      <c r="E26" s="266"/>
+      <c r="C26" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="263" t="n">
         <f>((E26-C26)*24)-1</f>
         <v>0.0</v>
@@ -14858,8 +14993,12 @@
       <c r="B27" s="265" t="n">
         <v>12.0</v>
       </c>
-      <c r="C27" s="266"/>
-      <c r="E27" s="266"/>
+      <c r="C27" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="263" t="n">
         <f>((E27-C27)*24)-1</f>
         <v>0.0</v>
@@ -14869,8 +15008,12 @@
       <c r="B28" s="265" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="266"/>
-      <c r="E28" s="266"/>
+      <c r="C28" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="263" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -14900,8 +15043,12 @@
       <c r="B31" s="265" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="266"/>
-      <c r="E31" s="266"/>
+      <c r="C31" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="263" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -14911,8 +15058,12 @@
       <c r="B32" s="265" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="266"/>
-      <c r="E32" s="266"/>
+      <c r="C32" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="263" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -14922,8 +15073,12 @@
       <c r="B33" s="265" t="n">
         <v>18.0</v>
       </c>
-      <c r="C33" s="266"/>
-      <c r="E33" s="266"/>
+      <c r="C33" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="263" t="n">
         <f>((E33-C33)*24)-1</f>
         <v>0.0</v>
@@ -14933,8 +15088,12 @@
       <c r="B34" s="265" t="n">
         <v>19.0</v>
       </c>
-      <c r="C34" s="266"/>
-      <c r="E34" s="266"/>
+      <c r="C34" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="263" t="n">
         <f>((E34-C34)*24)-1</f>
         <v>0.0</v>
@@ -14944,8 +15103,12 @@
       <c r="B35" s="265" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="266"/>
-      <c r="E35" s="266"/>
+      <c r="C35" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="263" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -14975,8 +15138,12 @@
       <c r="B38" s="265" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="266"/>
-      <c r="E38" s="266"/>
+      <c r="C38" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="263" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -14986,8 +15153,12 @@
       <c r="B39" s="265" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="266"/>
-      <c r="E39" s="266"/>
+      <c r="C39" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="263" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -14997,8 +15168,12 @@
       <c r="B40" s="265" t="n">
         <v>25.0</v>
       </c>
-      <c r="C40" s="266"/>
-      <c r="E40" s="266"/>
+      <c r="C40" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E40" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G40" s="263" t="n">
         <f>((E40-C40)*24)-1</f>
         <v>0.0</v>
@@ -15008,8 +15183,12 @@
       <c r="B41" s="265" t="n">
         <v>26.0</v>
       </c>
-      <c r="C41" s="266"/>
-      <c r="E41" s="266"/>
+      <c r="C41" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="263" t="n">
         <f>((E41-C41)*24)-1</f>
         <v>0.0</v>
@@ -15019,8 +15198,12 @@
       <c r="B42" s="265" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="266"/>
-      <c r="E42" s="266"/>
+      <c r="C42" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="263" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -15050,8 +15233,12 @@
       <c r="B45" s="265" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="266"/>
-      <c r="E45" s="266"/>
+      <c r="C45" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E45" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G45" s="263" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -15061,8 +15248,12 @@
       <c r="B46" s="265" t="n">
         <v>31.0</v>
       </c>
-      <c r="C46" s="266"/>
-      <c r="E46" s="266"/>
+      <c r="C46" s="505" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E46" s="505" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G46" s="263" t="n">
         <f>((E46-C46)*24)-1</f>
         <v>0.0</v>
@@ -15164,6 +15355,7 @@
       <c r="H62" s="276"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>
@@ -15349,8 +15541,12 @@
       <c r="B16" s="297" t="n">
         <v>1.0</v>
       </c>
-      <c r="C16" s="298"/>
-      <c r="E16" s="298"/>
+      <c r="C16" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="295" t="n">
         <f>((E16-C16)*24)-1</f>
         <v>0.0</v>
@@ -15360,8 +15556,12 @@
       <c r="B17" s="297" t="n">
         <v>2.0</v>
       </c>
-      <c r="C17" s="298"/>
-      <c r="E17" s="298"/>
+      <c r="C17" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E17" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G17" s="295" t="n">
         <f>((E17-C17)*24)-1</f>
         <v>0.0</v>
@@ -15371,8 +15571,12 @@
       <c r="B18" s="297" t="n">
         <v>3.0</v>
       </c>
-      <c r="C18" s="298"/>
-      <c r="E18" s="298"/>
+      <c r="C18" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E18" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G18" s="295" t="n">
         <f>((E18-C18)*24)-1</f>
         <v>0.0</v>
@@ -15402,8 +15606,12 @@
       <c r="B21" s="297" t="n">
         <v>6.0</v>
       </c>
-      <c r="C21" s="298"/>
-      <c r="E21" s="298"/>
+      <c r="C21" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="295" t="n">
         <f>((E21-C21)*24)-1</f>
         <v>0.0</v>
@@ -15413,8 +15621,12 @@
       <c r="B22" s="297" t="n">
         <v>7.0</v>
       </c>
-      <c r="C22" s="298"/>
-      <c r="E22" s="298"/>
+      <c r="C22" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="295" t="n">
         <f>((E22-C22)*24)-1</f>
         <v>0.0</v>
@@ -15424,8 +15636,12 @@
       <c r="B23" s="297" t="n">
         <v>8.0</v>
       </c>
-      <c r="C23" s="298"/>
-      <c r="E23" s="298"/>
+      <c r="C23" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="295" t="n">
         <f>((E23-C23)*24)-1</f>
         <v>0.0</v>
@@ -15435,8 +15651,12 @@
       <c r="B24" s="297" t="n">
         <v>9.0</v>
       </c>
-      <c r="C24" s="298"/>
-      <c r="E24" s="298"/>
+      <c r="C24" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E24" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G24" s="295" t="n">
         <f>((E24-C24)*24)-1</f>
         <v>0.0</v>
@@ -15446,8 +15666,12 @@
       <c r="B25" s="297" t="n">
         <v>10.0</v>
       </c>
-      <c r="C25" s="298"/>
-      <c r="E25" s="298"/>
+      <c r="C25" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E25" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G25" s="295" t="n">
         <f>((E25-C25)*24)-1</f>
         <v>0.0</v>
@@ -15477,8 +15701,12 @@
       <c r="B28" s="297" t="n">
         <v>13.0</v>
       </c>
-      <c r="C28" s="298"/>
-      <c r="E28" s="298"/>
+      <c r="C28" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="295" t="n">
         <f>((E28-C28)*24)-1</f>
         <v>0.0</v>
@@ -15488,8 +15716,12 @@
       <c r="B29" s="297" t="n">
         <v>14.0</v>
       </c>
-      <c r="C29" s="298"/>
-      <c r="E29" s="298"/>
+      <c r="C29" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="295" t="n">
         <f>((E29-C29)*24)-1</f>
         <v>0.0</v>
@@ -15499,8 +15731,12 @@
       <c r="B30" s="297" t="n">
         <v>15.0</v>
       </c>
-      <c r="C30" s="298"/>
-      <c r="E30" s="298"/>
+      <c r="C30" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="295" t="n">
         <f>((E30-C30)*24)-1</f>
         <v>0.0</v>
@@ -15510,8 +15746,12 @@
       <c r="B31" s="297" t="n">
         <v>16.0</v>
       </c>
-      <c r="C31" s="298"/>
-      <c r="E31" s="298"/>
+      <c r="C31" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E31" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G31" s="295" t="n">
         <f>((E31-C31)*24)-1</f>
         <v>0.0</v>
@@ -15521,8 +15761,12 @@
       <c r="B32" s="297" t="n">
         <v>17.0</v>
       </c>
-      <c r="C32" s="298"/>
-      <c r="E32" s="298"/>
+      <c r="C32" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E32" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G32" s="295" t="n">
         <f>((E32-C32)*24)-1</f>
         <v>0.0</v>
@@ -15552,8 +15796,12 @@
       <c r="B35" s="297" t="n">
         <v>20.0</v>
       </c>
-      <c r="C35" s="298"/>
-      <c r="E35" s="298"/>
+      <c r="C35" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="295" t="n">
         <f>((E35-C35)*24)-1</f>
         <v>0.0</v>
@@ -15563,8 +15811,12 @@
       <c r="B36" s="297" t="n">
         <v>21.0</v>
       </c>
-      <c r="C36" s="298"/>
-      <c r="E36" s="298"/>
+      <c r="C36" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="295" t="n">
         <f>((E36-C36)*24)-1</f>
         <v>0.0</v>
@@ -15574,8 +15826,12 @@
       <c r="B37" s="297" t="n">
         <v>22.0</v>
       </c>
-      <c r="C37" s="298"/>
-      <c r="E37" s="298"/>
+      <c r="C37" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="295" t="n">
         <f>((E37-C37)*24)-1</f>
         <v>0.0</v>
@@ -15585,8 +15841,12 @@
       <c r="B38" s="297" t="n">
         <v>23.0</v>
       </c>
-      <c r="C38" s="298"/>
-      <c r="E38" s="298"/>
+      <c r="C38" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E38" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G38" s="295" t="n">
         <f>((E38-C38)*24)-1</f>
         <v>0.0</v>
@@ -15596,8 +15856,12 @@
       <c r="B39" s="297" t="n">
         <v>24.0</v>
       </c>
-      <c r="C39" s="298"/>
-      <c r="E39" s="298"/>
+      <c r="C39" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E39" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G39" s="295" t="n">
         <f>((E39-C39)*24)-1</f>
         <v>0.0</v>
@@ -15627,8 +15891,12 @@
       <c r="B42" s="297" t="n">
         <v>27.0</v>
       </c>
-      <c r="C42" s="298"/>
-      <c r="E42" s="298"/>
+      <c r="C42" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="295" t="n">
         <f>((E42-C42)*24)-1</f>
         <v>0.0</v>
@@ -15638,8 +15906,12 @@
       <c r="B43" s="297" t="n">
         <v>28.0</v>
       </c>
-      <c r="C43" s="298"/>
-      <c r="E43" s="298"/>
+      <c r="C43" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="295" t="n">
         <f>((E43-C43)*24)-1</f>
         <v>0.0</v>
@@ -15649,8 +15921,12 @@
       <c r="B44" s="297" t="n">
         <v>29.0</v>
       </c>
-      <c r="C44" s="298"/>
-      <c r="E44" s="298"/>
+      <c r="C44" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E44" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G44" s="295" t="n">
         <f>((E44-C44)*24)-1</f>
         <v>0.0</v>
@@ -15660,8 +15936,12 @@
       <c r="B45" s="297" t="n">
         <v>30.0</v>
       </c>
-      <c r="C45" s="298"/>
-      <c r="E45" s="298"/>
+      <c r="C45" s="509" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E45" s="509" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G45" s="295" t="n">
         <f>((E45-C45)*24)-1</f>
         <v>0.0</v>
@@ -15764,6 +16044,7 @@
       <c r="H62" s="307"/>
     </row>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B58:H62"/>
     <mergeCell ref="B6:H6"/>

--- a/config_files/Horarios/Palobiofarma, S.L Pamplona/Francisco Javier García.xlsx
+++ b/config_files/Horarios/Palobiofarma, S.L Pamplona/Francisco Javier García.xlsx
@@ -2,6 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
     <sheet state="visible" name="2022" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="1" sheetId="2" r:id="rId5"/>
@@ -17,7 +20,6 @@
     <sheet state="visible" name="11" sheetId="12" r:id="rId15"/>
     <sheet state="visible" name="12" sheetId="13" r:id="rId16"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="117">
   <si>
     <t>Calendario 2022</t>
   </si>
@@ -376,6 +378,9 @@
   </si>
   <si>
     <t>Diciembre</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1362,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="135">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1647,6 +1652,27 @@
     </xf>
     <xf borderId="31" fillId="15" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2255,20 +2281,21 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="2.71"/>
-    <col customWidth="1" min="2" max="8" width="6.71"/>
-    <col customWidth="1" min="9" max="9" width="2.71"/>
-    <col customWidth="1" min="10" max="16" width="6.71"/>
-    <col customWidth="1" min="17" max="17" width="2.71"/>
-    <col customWidth="1" min="18" max="24" width="6.71"/>
-    <col customWidth="1" min="25" max="25" width="10.0"/>
-    <col customWidth="1" min="26" max="26" width="5.71"/>
-    <col customWidth="1" min="27" max="29" width="25.0"/>
+    <col min="1" max="1" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="2" max="8" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="10" max="16" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="2.71" collapsed="true"/>
+    <col min="18" max="24" customWidth="true" width="6.71" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="5.71" collapsed="true"/>
+    <col min="27" max="29" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.5" customHeight="1">
@@ -5219,24 +5246,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -5376,22 +5404,28 @@
       <c r="B16" s="126">
         <v>1.0</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="G16" s="110">
-        <f t="shared" ref="G16:G17" si="1">IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
-        <v>0</v>
+      <c r="C16" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="B17" s="126">
         <v>2.0</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="G17" s="110">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="C17" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
@@ -5462,11 +5496,14 @@
       <c r="B24" s="126">
         <v>9.0</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="G24" s="110">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="C24" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -6712,24 +6749,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -8212,24 +8250,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -9703,24 +9742,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -11202,24 +11242,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -12778,6 +12819,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -12799,24 +12841,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -14364,6 +14407,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -14385,24 +14429,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -15973,6 +16018,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -15994,24 +16040,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -17553,6 +17600,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -17574,24 +17622,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -19158,6 +19207,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -19179,24 +19229,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20744,6 +20795,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -20765,24 +20817,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -20922,8 +20975,12 @@
       <c r="B16" s="126">
         <v>1.0</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="E16" s="113"/>
+      <c r="C16" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E16" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G16" s="110">
         <f>IF((E16-C16)*24&lt;=4,(E16-C16)*24,(E16-C16)*24-1)</f>
         <v>0</v>
@@ -20953,8 +21010,12 @@
       <c r="B19" s="126">
         <v>4.0</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="E19" s="113"/>
+      <c r="C19" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E19" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G19" s="110">
         <f t="shared" ref="G19:G23" si="1">IF((E19-C19)*24&lt;=4,(E19-C19)*24,(E19-C19)*24-1)</f>
         <v>0</v>
@@ -20964,8 +21025,12 @@
       <c r="B20" s="126">
         <v>5.0</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="E20" s="113"/>
+      <c r="C20" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E20" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G20" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20975,8 +21040,12 @@
       <c r="B21" s="126">
         <v>6.0</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="E21" s="113"/>
+      <c r="C21" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E21" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G21" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20986,8 +21055,12 @@
       <c r="B22" s="126">
         <v>7.0</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="E22" s="113"/>
+      <c r="C22" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E22" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G22" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -20997,8 +21070,12 @@
       <c r="B23" s="126">
         <v>8.0</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="E23" s="113"/>
+      <c r="C23" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E23" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G23" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -21028,8 +21105,12 @@
       <c r="B26" s="126">
         <v>11.0</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="E26" s="113"/>
+      <c r="C26" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E26" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G26" s="110">
         <f t="shared" ref="G26:G30" si="2">IF((E26-C26)*24&lt;=4,(E26-C26)*24,(E26-C26)*24-1)</f>
         <v>0</v>
@@ -21039,8 +21120,12 @@
       <c r="B27" s="126">
         <v>12.0</v>
       </c>
-      <c r="C27" s="113"/>
-      <c r="E27" s="113"/>
+      <c r="C27" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E27" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G27" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21050,8 +21135,12 @@
       <c r="B28" s="126">
         <v>13.0</v>
       </c>
-      <c r="C28" s="113"/>
-      <c r="E28" s="113"/>
+      <c r="C28" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E28" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G28" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21061,8 +21150,12 @@
       <c r="B29" s="126">
         <v>14.0</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="E29" s="113"/>
+      <c r="C29" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E29" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G29" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21072,8 +21165,12 @@
       <c r="B30" s="126">
         <v>15.0</v>
       </c>
-      <c r="C30" s="113"/>
-      <c r="E30" s="113"/>
+      <c r="C30" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E30" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G30" s="110">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -21103,8 +21200,12 @@
       <c r="B33" s="126">
         <v>18.0</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="E33" s="113"/>
+      <c r="C33" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E33" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G33" s="110">
         <f t="shared" ref="G33:G37" si="3">IF((E33-C33)*24&lt;=4,(E33-C33)*24,(E33-C33)*24-1)</f>
         <v>0</v>
@@ -21114,8 +21215,12 @@
       <c r="B34" s="126">
         <v>19.0</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="E34" s="113"/>
+      <c r="C34" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E34" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G34" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21125,8 +21230,12 @@
       <c r="B35" s="126">
         <v>20.0</v>
       </c>
-      <c r="C35" s="113"/>
-      <c r="E35" s="113"/>
+      <c r="C35" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E35" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G35" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21136,8 +21245,12 @@
       <c r="B36" s="126">
         <v>21.0</v>
       </c>
-      <c r="C36" s="113"/>
-      <c r="E36" s="113"/>
+      <c r="C36" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E36" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G36" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21147,8 +21260,12 @@
       <c r="B37" s="126">
         <v>22.0</v>
       </c>
-      <c r="C37" s="113"/>
-      <c r="E37" s="113"/>
+      <c r="C37" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E37" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G37" s="110">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -21188,8 +21305,12 @@
       <c r="B41" s="126">
         <v>26.0</v>
       </c>
-      <c r="C41" s="113"/>
-      <c r="E41" s="113"/>
+      <c r="C41" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E41" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G41" s="110">
         <f t="shared" ref="G41:G44" si="4">IF((E41-C41)*24&lt;=4,(E41-C41)*24,(E41-C41)*24-1)</f>
         <v>0</v>
@@ -21199,8 +21320,12 @@
       <c r="B42" s="126">
         <v>27.0</v>
       </c>
-      <c r="C42" s="113"/>
-      <c r="E42" s="113"/>
+      <c r="C42" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E42" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G42" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -21210,8 +21335,12 @@
       <c r="B43" s="126">
         <v>28.0</v>
       </c>
-      <c r="C43" s="113"/>
-      <c r="E43" s="113"/>
+      <c r="C43" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E43" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G43" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -21221,8 +21350,12 @@
       <c r="B44" s="126">
         <v>29.0</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="E44" s="113"/>
+      <c r="C44" s="133" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E44" s="133" t="n">
+        <v>0.7083333333333334</v>
+      </c>
       <c r="G44" s="110">
         <f t="shared" si="4"/>
         <v>0</v>
@@ -22244,6 +22377,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sheetProtection password="BCDB" sheet="true" scenarios="true" objects="true"/>
   <mergeCells count="7">
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="J6:P6"/>
@@ -22265,24 +22399,25 @@
   <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="B2:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.86"/>
-    <col customWidth="1" min="2" max="2" width="18.71"/>
-    <col customWidth="1" min="3" max="3" width="18.0"/>
-    <col customWidth="1" min="4" max="4" width="3.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="3.14"/>
-    <col customWidth="1" min="7" max="7" width="14.71"/>
-    <col customWidth="1" min="8" max="8" width="4.71"/>
-    <col customWidth="1" min="9" max="9" width="10.86"/>
-    <col customWidth="1" min="10" max="10" width="5.29"/>
-    <col customWidth="1" min="11" max="11" width="13.29"/>
-    <col customWidth="1" min="12" max="16" width="10.86"/>
-    <col customWidth="1" min="17" max="26" width="8.71"/>
+    <col min="1" max="1" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="3.14" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="14.71" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="4.71" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="5.29" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.29" collapsed="true"/>
+    <col min="12" max="16" customWidth="true" width="10.86" collapsed="true"/>
+    <col min="17" max="26" customWidth="true" width="8.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="2" ht="14.25" customHeight="1">
@@ -22582,44 +22717,56 @@
       <c r="B31" s="126">
         <v>16.0</v>
       </c>
-      <c r="C31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="G31" s="110">
-        <f t="shared" ref="G31:G34" si="3">IF((E31-C31)*24&lt;=4,(E31-C31)*24,(E31-C31)*24-1)</f>
-        <v>0</v>
+      <c r="C31" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="B32" s="126">
         <v>17.0</v>
       </c>
-      <c r="C32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="G32" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C32" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="B33" s="126">
         <v>18.0</v>
       </c>
-      <c r="C33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="G33" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C33" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="B34" s="126">
         <v>19.0</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="G34" s="110">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="C34" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
@@ -22646,55 +22793,70 @@
       <c r="B37" s="126">
         <v>22.0</v>
       </c>
-      <c r="C37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="G37" s="110">
-        <f t="shared" ref="G37:G41" si="4">IF((E37-C37)*24&lt;=4,(E37-C37)*24,(E37-C37)*24-1)</f>
-        <v>0</v>
+      <c r="C37" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="B38" s="126">
         <v>23.0</v>
       </c>
-      <c r="C38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="G38" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C38" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="B39" s="126">
         <v>24.0</v>
       </c>
-      <c r="C39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="G39" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C39" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E39" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="B40" s="126">
         <v>25.0</v>
       </c>
-      <c r="C40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="G40" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C40" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="B41" s="126">
         <v>26.0</v>
       </c>
-      <c r="C41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="G41" s="110">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="C41" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
@@ -22721,33 +22883,42 @@
       <c r="B44" s="126">
         <v>29.0</v>
       </c>
-      <c r="C44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="G44" s="110">
-        <f t="shared" ref="G44:G46" si="5">IF((E44-C44)*24&lt;=4,(E44-C44)*24,(E44-C44)*24-1)</f>
-        <v>0</v>
+      <c r="C44" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="B45" s="126">
         <v>30.0</v>
       </c>
-      <c r="C45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="G45" s="110">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C45" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E45" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="B46" s="126">
         <v>31.0</v>
       </c>
-      <c r="C46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="G46" s="110">
-        <f t="shared" si="5"/>
-        <v>0</v>
+      <c r="C46" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="113" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="110" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
